--- a/data/2019/2019 Monsoon Data.xlsx
+++ b/data/2019/2019 Monsoon Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Lal Kamal Project\Bihar Monsoon Report\data\2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD547151-AA8A-4406-B98C-EDD036824D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C720237-945B-478B-B23B-CB190FE84308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jun" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="126">
   <si>
     <t>S. No.</t>
   </si>
@@ -191,6 +191,237 @@
   </si>
   <si>
     <t>Monsoon Normal R/F (mm)</t>
+  </si>
+  <si>
+    <t>-24</t>
+  </si>
+  <si>
+    <t>-67</t>
+  </si>
+  <si>
+    <t>-88</t>
+  </si>
+  <si>
+    <t>-59</t>
+  </si>
+  <si>
+    <t>-25</t>
+  </si>
+  <si>
+    <t>-60</t>
+  </si>
+  <si>
+    <t>-72</t>
+  </si>
+  <si>
+    <t>-38</t>
+  </si>
+  <si>
+    <t>-34</t>
+  </si>
+  <si>
+    <t>-46</t>
+  </si>
+  <si>
+    <t>-54</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>-64</t>
+  </si>
+  <si>
+    <t>-69</t>
+  </si>
+  <si>
+    <t>-27</t>
+  </si>
+  <si>
+    <t>-76</t>
+  </si>
+  <si>
+    <t>-15</t>
+  </si>
+  <si>
+    <t>-55</t>
+  </si>
+  <si>
+    <t>-85</t>
+  </si>
+  <si>
+    <t>-70</t>
+  </si>
+  <si>
+    <t>-58</t>
+  </si>
+  <si>
+    <t>-10</t>
+  </si>
+  <si>
+    <t>-84</t>
+  </si>
+  <si>
+    <t>-52</t>
+  </si>
+  <si>
+    <t>-49</t>
+  </si>
+  <si>
+    <t>-93</t>
+  </si>
+  <si>
+    <t>-11</t>
+  </si>
+  <si>
+    <t>-65</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>-61</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>-53</t>
+  </si>
+  <si>
+    <t>-17</t>
+  </si>
+  <si>
+    <t>-33</t>
+  </si>
+  <si>
+    <t>-50</t>
+  </si>
+  <si>
+    <t>-82</t>
+  </si>
+  <si>
+    <t>-7</t>
+  </si>
+  <si>
+    <t>-20</t>
+  </si>
+  <si>
+    <t>-48</t>
+  </si>
+  <si>
+    <t>-62</t>
+  </si>
+  <si>
+    <t>-43</t>
+  </si>
+  <si>
+    <t>-32</t>
+  </si>
+  <si>
+    <t>-44</t>
+  </si>
+  <si>
+    <t>-51</t>
+  </si>
+  <si>
+    <t>-56</t>
+  </si>
+  <si>
+    <t>-57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
 </sst>
 </file>
@@ -512,7 +743,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E39"/>
+      <selection activeCell="B1" sqref="B1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,190 +769,646 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>198.7</v>
+      </c>
+      <c r="D2">
+        <v>262.60000000000002</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>30.7</v>
+      </c>
+      <c r="D3">
+        <v>91.8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>15.2</v>
+      </c>
+      <c r="D4">
+        <v>126.8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>56.7</v>
+      </c>
+      <c r="D5">
+        <v>139.5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>19.2</v>
+      </c>
+      <c r="D6">
+        <v>165.6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>83.9</v>
+      </c>
+      <c r="D7">
+        <v>111.7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="D8">
+        <v>179.5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>32.6</v>
+      </c>
+      <c r="D9">
+        <v>116.4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="D10">
+        <v>110.6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>96</v>
+      </c>
+      <c r="D11">
+        <v>145.1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>95.3</v>
+      </c>
+      <c r="D12">
+        <v>177.8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>62.7</v>
+      </c>
+      <c r="D13">
+        <v>135.4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <v>145.80000000000001</v>
+      </c>
+      <c r="D14">
+        <v>142.80000000000001</v>
+      </c>
+      <c r="E14" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15">
+        <v>45.6</v>
+      </c>
+      <c r="D15">
+        <v>125.2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16">
+        <v>48.8</v>
+      </c>
+      <c r="D16">
+        <v>147.4</v>
+      </c>
+      <c r="E16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>114.8</v>
+      </c>
+      <c r="D17">
+        <v>211.9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18">
+        <v>57.8</v>
+      </c>
+      <c r="D18">
+        <v>184.5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19">
+        <v>250.7</v>
+      </c>
+      <c r="D19">
+        <v>342.6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20">
+        <v>28.9</v>
+      </c>
+      <c r="D20">
+        <v>121.7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21">
+        <v>168.6</v>
+      </c>
+      <c r="D21">
+        <v>197.5</v>
+      </c>
+      <c r="E21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22">
+        <v>76.8</v>
+      </c>
+      <c r="D22">
+        <v>169.2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23">
+        <v>24.8</v>
+      </c>
+      <c r="D23">
+        <v>164</v>
+      </c>
+      <c r="E23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24">
+        <v>47.1</v>
+      </c>
+      <c r="D24">
+        <v>157</v>
+      </c>
+      <c r="E24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25">
+        <v>50.6</v>
+      </c>
+      <c r="D25">
+        <v>119.2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="D26">
+        <v>124.3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27">
+        <v>42.5</v>
+      </c>
+      <c r="D27">
+        <v>130.19999999999999</v>
+      </c>
+      <c r="E27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28">
+        <v>251.5</v>
+      </c>
+      <c r="D28">
+        <v>279.7</v>
+      </c>
+      <c r="E28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29">
+        <v>18.2</v>
+      </c>
+      <c r="D29">
+        <v>115.4</v>
+      </c>
+      <c r="E29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30">
+        <v>93</v>
+      </c>
+      <c r="D30">
+        <v>195.6</v>
+      </c>
+      <c r="E30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31">
+        <v>63.8</v>
+      </c>
+      <c r="D31">
+        <v>158.4</v>
+      </c>
+      <c r="E31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32">
+        <v>65.7</v>
+      </c>
+      <c r="D32">
+        <v>129.69999999999999</v>
+      </c>
+      <c r="E32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33">
+        <v>9.4</v>
+      </c>
+      <c r="D33">
+        <v>130.1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34">
+        <v>43.4</v>
+      </c>
+      <c r="D34">
+        <v>179.1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35">
+        <v>96.2</v>
+      </c>
+      <c r="D35">
+        <v>188.9</v>
+      </c>
+      <c r="E35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36">
+        <v>63.2</v>
+      </c>
+      <c r="D36">
+        <v>130.80000000000001</v>
+      </c>
+      <c r="E36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37">
+        <v>181.7</v>
+      </c>
+      <c r="D37">
+        <v>203.4</v>
+      </c>
+      <c r="E37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38">
+        <v>44.3</v>
+      </c>
+      <c r="D38">
+        <v>126.1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39">
+        <v>377.3</v>
+      </c>
+      <c r="D39">
+        <v>200.8</v>
+      </c>
+      <c r="E39" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -733,8 +1420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{105AA92B-155B-4E51-8D2E-C368A65BCB69}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E39" sqref="B2:E39"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,190 +1447,646 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>612.20000000000005</v>
+      </c>
+      <c r="D2">
+        <v>487.1</v>
+      </c>
+      <c r="E2">
+        <v>26</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>185.6</v>
+      </c>
+      <c r="D3">
+        <v>249.1</v>
+      </c>
+      <c r="E3">
+        <v>-25</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>238.3</v>
+      </c>
+      <c r="D4">
+        <v>293.5</v>
+      </c>
+      <c r="E4">
+        <v>-19</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>272.8</v>
+      </c>
+      <c r="D5">
+        <v>284.7</v>
+      </c>
+      <c r="E5">
+        <v>-4</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>196.7</v>
+      </c>
+      <c r="D6">
+        <v>329.1</v>
+      </c>
+      <c r="E6">
+        <v>-40</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>364.9</v>
+      </c>
+      <c r="D7">
+        <v>286</v>
+      </c>
+      <c r="E7">
+        <v>28</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>397.6</v>
+      </c>
+      <c r="D8">
+        <v>310.7</v>
+      </c>
+      <c r="E8">
+        <v>28</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>358.2</v>
+      </c>
+      <c r="D9">
+        <v>306.8</v>
+      </c>
+      <c r="E9">
+        <v>17</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>465.7</v>
+      </c>
+      <c r="D10">
+        <v>270.60000000000002</v>
+      </c>
+      <c r="E10">
+        <v>72</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>416.4</v>
+      </c>
+      <c r="D11">
+        <v>313.2</v>
+      </c>
+      <c r="E11">
+        <v>33</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>665.4</v>
+      </c>
+      <c r="D12">
+        <v>364.3</v>
+      </c>
+      <c r="E12">
+        <v>83</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>201.7</v>
+      </c>
+      <c r="D13">
+        <v>276.60000000000002</v>
+      </c>
+      <c r="E13">
+        <v>-27</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <v>611.1</v>
+      </c>
+      <c r="D14">
+        <v>336.3</v>
+      </c>
+      <c r="E14">
+        <v>82</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15">
+        <v>206.1</v>
+      </c>
+      <c r="D15">
+        <v>284.39999999999998</v>
+      </c>
+      <c r="E15">
+        <v>-28</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16">
+        <v>324.2</v>
+      </c>
+      <c r="D16">
+        <v>319.39999999999998</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>377.6</v>
+      </c>
+      <c r="D17">
+        <v>349.2</v>
+      </c>
+      <c r="E17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18">
+        <v>395.6</v>
+      </c>
+      <c r="D18">
+        <v>309</v>
+      </c>
+      <c r="E18">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19">
+        <v>915.1</v>
+      </c>
+      <c r="D19">
+        <v>597.4</v>
+      </c>
+      <c r="E19">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20">
+        <v>297.89999999999998</v>
+      </c>
+      <c r="D20">
+        <v>305.3</v>
+      </c>
+      <c r="E20">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21">
+        <v>533.6</v>
+      </c>
+      <c r="D21">
+        <v>332.8</v>
+      </c>
+      <c r="E21">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22">
+        <v>468.2</v>
+      </c>
+      <c r="D22">
+        <v>353.5</v>
+      </c>
+      <c r="E22">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23">
+        <v>401</v>
+      </c>
+      <c r="D23">
+        <v>353.9</v>
+      </c>
+      <c r="E23">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24">
+        <v>549.4</v>
+      </c>
+      <c r="D24">
+        <v>332.2</v>
+      </c>
+      <c r="E24">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25">
+        <v>255.8</v>
+      </c>
+      <c r="D25">
+        <v>304.3</v>
+      </c>
+      <c r="E25">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26">
+        <v>301.89999999999998</v>
+      </c>
+      <c r="D26">
+        <v>281.39999999999998</v>
+      </c>
+      <c r="E26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27">
+        <v>278.7</v>
+      </c>
+      <c r="D27">
+        <v>315.60000000000002</v>
+      </c>
+      <c r="E27">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28">
+        <v>352.2</v>
+      </c>
+      <c r="D28">
+        <v>476.3</v>
+      </c>
+      <c r="E28">
+        <v>-26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29">
+        <v>213.9</v>
+      </c>
+      <c r="D29">
+        <v>288.8</v>
+      </c>
+      <c r="E29">
+        <v>-26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30">
+        <v>403.3</v>
+      </c>
+      <c r="D30">
+        <v>375.3</v>
+      </c>
+      <c r="E30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31">
+        <v>406.4</v>
+      </c>
+      <c r="D31">
+        <v>309.5</v>
+      </c>
+      <c r="E31">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32">
+        <v>480.8</v>
+      </c>
+      <c r="D32">
+        <v>315.89999999999998</v>
+      </c>
+      <c r="E32">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33">
+        <v>254.8</v>
+      </c>
+      <c r="D33">
+        <v>296.60000000000002</v>
+      </c>
+      <c r="E33">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34">
+        <v>595.79999999999995</v>
+      </c>
+      <c r="D34">
+        <v>356.7</v>
+      </c>
+      <c r="E34">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35">
+        <v>621.4</v>
+      </c>
+      <c r="D35">
+        <v>375.5</v>
+      </c>
+      <c r="E35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36">
+        <v>714.2</v>
+      </c>
+      <c r="D36">
+        <v>308.3</v>
+      </c>
+      <c r="E36">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37">
+        <v>501.7</v>
+      </c>
+      <c r="D37">
+        <v>391.3</v>
+      </c>
+      <c r="E37">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38">
+        <v>330.2</v>
+      </c>
+      <c r="D38">
+        <v>335.6</v>
+      </c>
+      <c r="E38">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39">
+        <v>641.9</v>
+      </c>
+      <c r="D39">
+        <v>438.5</v>
+      </c>
+      <c r="E39">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -955,8 +2098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4CBDC90-A528-48EA-AC55-BF8E2514B141}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E39"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -982,190 +2125,646 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>155.4</v>
+      </c>
+      <c r="D2">
+        <v>340.9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="D3">
+        <v>204.5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>269</v>
+      </c>
+      <c r="D4">
+        <v>251</v>
+      </c>
+      <c r="E4" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>117.5</v>
+      </c>
+      <c r="D5">
+        <v>247.7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>106.1</v>
+      </c>
+      <c r="D6">
+        <v>273.8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>225.9</v>
+      </c>
+      <c r="D7">
+        <v>271.2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>102.4</v>
+      </c>
+      <c r="D8">
+        <v>260.3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>84.7</v>
+      </c>
+      <c r="D9">
+        <v>258.89999999999998</v>
+      </c>
+      <c r="E9" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>155.30000000000001</v>
+      </c>
+      <c r="D10">
+        <v>232</v>
+      </c>
+      <c r="E10" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>126.9</v>
+      </c>
+      <c r="D11">
+        <v>254.7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>54.1</v>
+      </c>
+      <c r="D12">
+        <v>302</v>
+      </c>
+      <c r="E12" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>224.2</v>
+      </c>
+      <c r="D13">
+        <v>241.6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <v>126.7</v>
+      </c>
+      <c r="D14">
+        <v>272.7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15">
+        <v>191.5</v>
+      </c>
+      <c r="D15">
+        <v>238.2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16">
+        <v>129.9</v>
+      </c>
+      <c r="D16">
+        <v>250.9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>121.5</v>
+      </c>
+      <c r="D17">
+        <v>255.8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18">
+        <v>98.2</v>
+      </c>
+      <c r="D18">
+        <v>252.1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19">
+        <v>187.1</v>
+      </c>
+      <c r="D19">
+        <v>451.7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20">
+        <v>101.8</v>
+      </c>
+      <c r="D20">
+        <v>222.7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21">
+        <v>95.5</v>
+      </c>
+      <c r="D21">
+        <v>265.89999999999998</v>
+      </c>
+      <c r="E21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22">
+        <v>102</v>
+      </c>
+      <c r="D22">
+        <v>268.5</v>
+      </c>
+      <c r="E22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23">
+        <v>109.8</v>
+      </c>
+      <c r="D23">
+        <v>276.10000000000002</v>
+      </c>
+      <c r="E23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="D24">
+        <v>261.89999999999998</v>
+      </c>
+      <c r="E24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25">
+        <v>134.69999999999999</v>
+      </c>
+      <c r="D25">
+        <v>237.7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26">
+        <v>165.8</v>
+      </c>
+      <c r="D26">
+        <v>242.4</v>
+      </c>
+      <c r="E26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27">
+        <v>107.9</v>
+      </c>
+      <c r="D27">
+        <v>237.8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28">
+        <v>193.6</v>
+      </c>
+      <c r="D28">
+        <v>346.9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29">
+        <v>189.6</v>
+      </c>
+      <c r="D29">
+        <v>248</v>
+      </c>
+      <c r="E29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30">
+        <v>155.19999999999999</v>
+      </c>
+      <c r="D30">
+        <v>276</v>
+      </c>
+      <c r="E30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31">
+        <v>228</v>
+      </c>
+      <c r="D31">
+        <v>254.8</v>
+      </c>
+      <c r="E31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32">
+        <v>121.6</v>
+      </c>
+      <c r="D32">
+        <v>258</v>
+      </c>
+      <c r="E32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33">
+        <v>102.4</v>
+      </c>
+      <c r="D33">
+        <v>209.6</v>
+      </c>
+      <c r="E33" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34">
+        <v>93.8</v>
+      </c>
+      <c r="D34">
+        <v>266.89999999999998</v>
+      </c>
+      <c r="E34" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35">
+        <v>56.5</v>
+      </c>
+      <c r="D35">
+        <v>307.3</v>
+      </c>
+      <c r="E35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36">
+        <v>82.4</v>
+      </c>
+      <c r="D36">
+        <v>249</v>
+      </c>
+      <c r="E36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37">
+        <v>114.6</v>
+      </c>
+      <c r="D37">
+        <v>262.5</v>
+      </c>
+      <c r="E37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38">
+        <v>132</v>
+      </c>
+      <c r="D38">
+        <v>244.3</v>
+      </c>
+      <c r="E38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39">
+        <v>154</v>
+      </c>
+      <c r="D39">
+        <v>355.8</v>
+      </c>
+      <c r="E39" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1177,7 +2776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB6A90AA-BBFB-4B2E-BFE2-E57D72B3F265}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:E39"/>
     </sheetView>
   </sheetViews>
@@ -1204,190 +2803,646 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>448.3</v>
+      </c>
+      <c r="D2">
+        <v>284</v>
+      </c>
+      <c r="E2" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>223.4</v>
+      </c>
+      <c r="D3">
+        <v>159.80000000000001</v>
+      </c>
+      <c r="E3" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>331.9</v>
+      </c>
+      <c r="D4">
+        <v>187.7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>376.3</v>
+      </c>
+      <c r="D5">
+        <v>198.7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>447</v>
+      </c>
+      <c r="D6">
+        <v>241</v>
+      </c>
+      <c r="E6" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>390.5</v>
+      </c>
+      <c r="D7">
+        <v>221.3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>502.2</v>
+      </c>
+      <c r="D8">
+        <v>219.7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>388.2</v>
+      </c>
+      <c r="D9">
+        <v>207.2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>394.6</v>
+      </c>
+      <c r="D10">
+        <v>172.2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>337.5</v>
+      </c>
+      <c r="D11">
+        <v>186.6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>340.6</v>
+      </c>
+      <c r="D12">
+        <v>211.1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>360.4</v>
+      </c>
+      <c r="D13">
+        <v>174.7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <v>483.9</v>
+      </c>
+      <c r="D14">
+        <v>216.8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15">
+        <v>392.1</v>
+      </c>
+      <c r="D15">
+        <v>185.1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16">
+        <v>309.7</v>
+      </c>
+      <c r="D16">
+        <v>218.7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>401.9</v>
+      </c>
+      <c r="D17">
+        <v>262</v>
+      </c>
+      <c r="E17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18">
+        <v>423.9</v>
+      </c>
+      <c r="D18">
+        <v>225.7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19">
+        <v>385.3</v>
+      </c>
+      <c r="D19">
+        <v>354.5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20">
+        <v>282.5</v>
+      </c>
+      <c r="D20">
+        <v>200.6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21">
+        <v>482.5</v>
+      </c>
+      <c r="D21">
+        <v>250.1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22">
+        <v>361.2</v>
+      </c>
+      <c r="D22">
+        <v>180.9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23">
+        <v>312.60000000000002</v>
+      </c>
+      <c r="D23">
+        <v>225.9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24">
+        <v>406</v>
+      </c>
+      <c r="D24">
+        <v>216.7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25">
+        <v>514</v>
+      </c>
+      <c r="D25">
+        <v>191.6</v>
+      </c>
+      <c r="E25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26">
+        <v>408.4</v>
+      </c>
+      <c r="D26">
+        <v>178.4</v>
+      </c>
+      <c r="E26" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27">
+        <v>431.2</v>
+      </c>
+      <c r="D27">
+        <v>203.3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28">
+        <v>528.29999999999995</v>
+      </c>
+      <c r="D28">
+        <v>308.89999999999998</v>
+      </c>
+      <c r="E28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29">
+        <v>360.3</v>
+      </c>
+      <c r="D29">
+        <v>190.1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30">
+        <v>376.7</v>
+      </c>
+      <c r="D30">
+        <v>236.4</v>
+      </c>
+      <c r="E30" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31">
+        <v>606.4</v>
+      </c>
+      <c r="D31">
+        <v>223</v>
+      </c>
+      <c r="E31" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32">
+        <v>315.2</v>
+      </c>
+      <c r="D32">
+        <v>195.8</v>
+      </c>
+      <c r="E32" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33">
+        <v>251.2</v>
+      </c>
+      <c r="D33">
+        <v>181.7</v>
+      </c>
+      <c r="E33" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34">
+        <v>280</v>
+      </c>
+      <c r="D34">
+        <v>206</v>
+      </c>
+      <c r="E34" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35">
+        <v>294.8</v>
+      </c>
+      <c r="D35">
+        <v>188.6</v>
+      </c>
+      <c r="E35" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36">
+        <v>413.5</v>
+      </c>
+      <c r="D36">
+        <v>212.9</v>
+      </c>
+      <c r="E36" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37">
+        <v>491.2</v>
+      </c>
+      <c r="D37">
+        <v>228.5</v>
+      </c>
+      <c r="E37" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38">
+        <v>471.7</v>
+      </c>
+      <c r="D38">
+        <v>199.4</v>
+      </c>
+      <c r="E38" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39">
+        <v>260.89999999999998</v>
+      </c>
+      <c r="D39">
+        <v>237.1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1400,7 +3455,7 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="B1" sqref="B1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1430,14 +3485,13 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>1142.1999999999998</v>
+        <v>1414.5</v>
       </c>
       <c r="D2">
-        <v>1333.4</v>
+        <v>1374.6</v>
       </c>
       <c r="E2">
-        <f>ROUND((D2-C2)/D2*100,0)</f>
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -1449,14 +3503,13 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>656.4</v>
+        <v>518.6</v>
       </c>
       <c r="D3">
-        <v>751.1</v>
+        <v>705.2</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E39" si="0">ROUND((D3-C3)/D3*100,0)</f>
-        <v>13</v>
+        <v>-26</v>
       </c>
       <c r="F3" s="1"/>
     </row>
@@ -1468,14 +3521,13 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>822.8</v>
+        <v>854.3</v>
       </c>
       <c r="D4">
-        <v>854.80000000000007</v>
+        <v>859</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -1487,14 +3539,13 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>788.8</v>
+        <v>823.3</v>
       </c>
       <c r="D5">
-        <v>912.1</v>
+        <v>870.6</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
-        <v>14</v>
+        <v>-5</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -1506,14 +3557,13 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>770.8</v>
+        <v>769.1</v>
       </c>
       <c r="D6">
-        <v>1046.3</v>
+        <v>1009.5</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
-        <v>26</v>
+        <v>-24</v>
       </c>
       <c r="F6" s="1"/>
     </row>
@@ -1525,14 +3575,13 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>1019</v>
+        <v>1065.2</v>
       </c>
       <c r="D7">
-        <v>927.4</v>
+        <v>890.2</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
-        <v>-10</v>
+        <v>20</v>
       </c>
       <c r="F7" s="1"/>
     </row>
@@ -1544,14 +3593,13 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>935.3</v>
+        <v>1073.2</v>
       </c>
       <c r="D8">
-        <v>972.30000000000007</v>
+        <v>970.2</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F8" s="1"/>
     </row>
@@ -1563,14 +3611,13 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>757.9</v>
+        <v>863.6</v>
       </c>
       <c r="D9">
-        <v>925.69999999999993</v>
+        <v>889.3</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <v>-3</v>
       </c>
       <c r="F9" s="1"/>
     </row>
@@ -1582,14 +3629,13 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>808.90000000000009</v>
+        <v>1084.2</v>
       </c>
       <c r="D10">
-        <v>828.90000000000009</v>
+        <v>785.4</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="F10" s="1"/>
     </row>
@@ -1601,14 +3647,13 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>1244.5</v>
+        <v>976.7</v>
       </c>
       <c r="D11">
-        <v>891.2</v>
+        <v>899.6</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
-        <v>-40</v>
+        <v>9</v>
       </c>
       <c r="F11" s="1"/>
     </row>
@@ -1620,14 +3665,13 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>1127.7999999999997</v>
+        <v>1155.3</v>
       </c>
       <c r="D12">
-        <v>1056.3999999999999</v>
+        <v>1055.2</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
-        <v>-7</v>
+        <v>9</v>
       </c>
       <c r="F12" s="1"/>
     </row>
@@ -1639,14 +3683,13 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>1075.8</v>
+        <v>849</v>
       </c>
       <c r="D13">
-        <v>857.8</v>
+        <v>828.3</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
-        <v>-25</v>
+        <v>3</v>
       </c>
       <c r="F13" s="1"/>
     </row>
@@ -1658,14 +3701,13 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>1010.6</v>
+        <v>1367.5</v>
       </c>
       <c r="D14">
-        <v>975.4</v>
+        <v>968.6</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
-        <v>-4</v>
+        <v>41</v>
       </c>
       <c r="F14" s="1"/>
     </row>
@@ -1677,14 +3719,13 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>775.09999999999991</v>
+        <v>835.3</v>
       </c>
       <c r="D15">
-        <v>818.7</v>
+        <v>832.9</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1"/>
     </row>
@@ -1696,14 +3737,13 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>718</v>
+        <v>812.6</v>
       </c>
       <c r="D16">
-        <v>930</v>
+        <v>936.4</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
-        <v>23</v>
+        <v>-13</v>
       </c>
       <c r="F16" s="1"/>
     </row>
@@ -1715,14 +3755,13 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>962.4</v>
+        <v>1015.9</v>
       </c>
       <c r="D17">
-        <v>1106.4000000000001</v>
+        <v>1078.9000000000001</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
-        <v>13</v>
+        <v>-6</v>
       </c>
       <c r="F17" s="1"/>
     </row>
@@ -1734,14 +3773,13 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>958.4</v>
+        <v>975.5</v>
       </c>
       <c r="D18">
-        <v>994.5</v>
+        <v>971.3</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1"/>
     </row>
@@ -1753,14 +3791,13 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>1601.3000000000002</v>
+        <v>1738.2</v>
       </c>
       <c r="D19">
-        <v>1786.1999999999998</v>
+        <v>1746.2</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1"/>
     </row>
@@ -1772,14 +3809,13 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>581.20000000000005</v>
+        <v>711.2</v>
       </c>
       <c r="D20">
-        <v>845.7</v>
+        <v>850.3</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
-        <v>31</v>
+        <v>-16</v>
       </c>
       <c r="F20" s="1"/>
     </row>
@@ -1791,14 +3827,13 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>1011.8000000000001</v>
+        <v>1280.2</v>
       </c>
       <c r="D21">
-        <v>1118.5</v>
+        <v>1046.3</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F21" s="1"/>
     </row>
@@ -1810,14 +3845,13 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>1161.8</v>
+        <v>1008.3</v>
       </c>
       <c r="D22">
-        <v>975.90000000000009</v>
+        <v>972.1</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
-        <v>-19</v>
+        <v>4</v>
       </c>
       <c r="F22" s="1"/>
     </row>
@@ -1829,14 +3863,13 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>802.2</v>
+        <v>848.2</v>
       </c>
       <c r="D23">
-        <v>1024.1999999999998</v>
+        <v>1019.9</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
-        <v>22</v>
+        <v>-17</v>
       </c>
       <c r="F23" s="1"/>
     </row>
@@ -1848,14 +3881,13 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>1239.3</v>
+        <v>1075.9000000000001</v>
       </c>
       <c r="D24">
-        <v>998.80000000000007</v>
+        <v>967.8</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
-        <v>-24</v>
+        <v>11</v>
       </c>
       <c r="F24" s="1"/>
     </row>
@@ -1867,14 +3899,13 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>807.6</v>
+        <v>955</v>
       </c>
       <c r="D25">
-        <v>862.3</v>
+        <v>852.8</v>
       </c>
       <c r="E25">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F25" s="1"/>
     </row>
@@ -1886,14 +3917,13 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>871</v>
+        <v>916.8</v>
       </c>
       <c r="D26">
-        <v>841.5</v>
+        <v>826.5</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
-        <v>-4</v>
+        <v>11</v>
       </c>
       <c r="F26" s="1"/>
     </row>
@@ -1905,14 +3935,13 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>783.30000000000007</v>
+        <v>860.3</v>
       </c>
       <c r="D27">
-        <v>920.69999999999993</v>
+        <v>886.9</v>
       </c>
       <c r="E27">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <v>-3</v>
       </c>
       <c r="F27" s="1"/>
     </row>
@@ -1924,14 +3953,13 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>828.4</v>
+        <v>1325.5</v>
       </c>
       <c r="D28">
-        <v>1462.3000000000002</v>
+        <v>1411.8</v>
       </c>
       <c r="E28">
-        <f t="shared" si="0"/>
-        <v>43</v>
+        <v>-6</v>
       </c>
       <c r="F28" s="1"/>
     </row>
@@ -1943,14 +3971,13 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>865.60000000000014</v>
+        <v>781.9</v>
       </c>
       <c r="D29">
-        <v>863.80000000000007</v>
+        <v>842.3</v>
       </c>
       <c r="E29">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="F29" s="1"/>
     </row>
@@ -1962,14 +3989,13 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>900.80000000000007</v>
+        <v>1028.2</v>
       </c>
       <c r="D30">
-        <v>1257.2</v>
+        <v>1083.3</v>
       </c>
       <c r="E30">
-        <f t="shared" si="0"/>
-        <v>28</v>
+        <v>-5</v>
       </c>
       <c r="F30" s="1"/>
     </row>
@@ -1981,14 +4007,13 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>1105.4000000000001</v>
+        <v>1304.5999999999999</v>
       </c>
       <c r="D31">
-        <v>975.6</v>
+        <v>945.7</v>
       </c>
       <c r="E31">
-        <f t="shared" si="0"/>
-        <v>-13</v>
+        <v>38</v>
       </c>
       <c r="F31" s="1"/>
     </row>
@@ -2000,14 +4025,13 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>1029.9000000000001</v>
+        <v>983.2</v>
       </c>
       <c r="D32">
-        <v>933.09999999999991</v>
+        <v>899.4</v>
       </c>
       <c r="E32">
-        <f t="shared" si="0"/>
-        <v>-10</v>
+        <v>9</v>
       </c>
       <c r="F32" s="1"/>
     </row>
@@ -2019,14 +4043,13 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>721.3</v>
+        <v>617.79999999999995</v>
       </c>
       <c r="D33">
-        <v>844.09999999999991</v>
+        <v>818</v>
       </c>
       <c r="E33">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <v>-24</v>
       </c>
       <c r="F33" s="1"/>
     </row>
@@ -2038,14 +4061,13 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>857.39999999999986</v>
+        <v>1013</v>
       </c>
       <c r="D34">
-        <v>1042.4000000000001</v>
+        <v>1008.7</v>
       </c>
       <c r="E34">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F34" s="1"/>
     </row>
@@ -2057,14 +4079,13 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>1111.5</v>
+        <v>1068.9000000000001</v>
       </c>
       <c r="D35">
-        <v>1061.4000000000001</v>
+        <v>1060.3</v>
       </c>
       <c r="E35">
-        <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="F35" s="1"/>
     </row>
@@ -2076,14 +4097,13 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>1131.3</v>
+        <v>1273.3</v>
       </c>
       <c r="D36">
-        <v>967.09999999999991</v>
+        <v>901</v>
       </c>
       <c r="E36">
-        <f t="shared" si="0"/>
-        <v>-17</v>
+        <v>41</v>
       </c>
       <c r="F36" s="1"/>
     </row>
@@ -2095,14 +4115,13 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>1432.1</v>
+        <v>1289.2</v>
       </c>
       <c r="D37">
-        <v>1092.5</v>
+        <v>1085.7</v>
       </c>
       <c r="E37">
-        <f t="shared" si="0"/>
-        <v>-31</v>
+        <v>19</v>
       </c>
       <c r="F37" s="1"/>
     </row>
@@ -2114,14 +4133,13 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>1285.0999999999999</v>
+        <v>978.1</v>
       </c>
       <c r="D38">
-        <v>959.3</v>
+        <v>905.4</v>
       </c>
       <c r="E38">
-        <f t="shared" si="0"/>
-        <v>-34</v>
+        <v>8</v>
       </c>
       <c r="F38" s="1"/>
     </row>
@@ -2133,14 +4151,13 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>2023.6000000000001</v>
+        <v>1434.1</v>
       </c>
       <c r="D39">
-        <v>1277.3999999999999</v>
+        <v>1232.2</v>
       </c>
       <c r="E39">
-        <f t="shared" si="0"/>
-        <v>-58</v>
+        <v>16</v>
       </c>
       <c r="F39" s="1"/>
     </row>
@@ -2153,8 +4170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B40D2E1D-075F-469B-B4B7-336B09E081E8}">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2204,13 +4221,45 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
+      <c r="C2">
+        <f>Jun!C2</f>
+        <v>198.7</v>
+      </c>
+      <c r="D2">
+        <f>Jul!C2</f>
+        <v>612.20000000000005</v>
+      </c>
+      <c r="E2">
+        <f>Aug!C2</f>
+        <v>155.4</v>
+      </c>
+      <c r="F2">
+        <f>Sep!C2</f>
+        <v>448.3</v>
+      </c>
       <c r="G2">
         <f>SUM(C2:F2)</f>
-        <v>0</v>
+        <v>1414.6000000000001</v>
+      </c>
+      <c r="H2">
+        <f>Jun!D2</f>
+        <v>262.60000000000002</v>
+      </c>
+      <c r="I2">
+        <f>Jul!D2</f>
+        <v>487.1</v>
+      </c>
+      <c r="J2">
+        <f>Aug!D2</f>
+        <v>340.9</v>
+      </c>
+      <c r="K2">
+        <f>Sep!D2</f>
+        <v>284</v>
       </c>
       <c r="L2">
         <f>SUM(H2:K2)</f>
-        <v>0</v>
+        <v>1374.6</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -2220,13 +4269,45 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
+      <c r="C3">
+        <f>Jun!C3</f>
+        <v>30.7</v>
+      </c>
+      <c r="D3">
+        <f>Jul!C3</f>
+        <v>185.6</v>
+      </c>
+      <c r="E3">
+        <f>Aug!C3</f>
+        <v>78.900000000000006</v>
+      </c>
+      <c r="F3">
+        <f>Sep!C3</f>
+        <v>223.4</v>
+      </c>
       <c r="G3">
         <f t="shared" ref="G3:G39" si="0">SUM(C3:F3)</f>
-        <v>0</v>
+        <v>518.6</v>
+      </c>
+      <c r="H3">
+        <f>Jun!D3</f>
+        <v>91.8</v>
+      </c>
+      <c r="I3">
+        <f>Jul!D3</f>
+        <v>249.1</v>
+      </c>
+      <c r="J3">
+        <f>Aug!D3</f>
+        <v>204.5</v>
+      </c>
+      <c r="K3">
+        <f>Sep!D3</f>
+        <v>159.80000000000001</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L39" si="1">SUM(H3:K3)</f>
-        <v>0</v>
+        <v>705.2</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2236,13 +4317,45 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
+      <c r="C4">
+        <f>Jun!C4</f>
+        <v>15.2</v>
+      </c>
+      <c r="D4">
+        <f>Jul!C4</f>
+        <v>238.3</v>
+      </c>
+      <c r="E4">
+        <f>Aug!C4</f>
+        <v>269</v>
+      </c>
+      <c r="F4">
+        <f>Sep!C4</f>
+        <v>331.9</v>
+      </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>854.4</v>
+      </c>
+      <c r="H4">
+        <f>Jun!D4</f>
+        <v>126.8</v>
+      </c>
+      <c r="I4">
+        <f>Jul!D4</f>
+        <v>293.5</v>
+      </c>
+      <c r="J4">
+        <f>Aug!D4</f>
+        <v>251</v>
+      </c>
+      <c r="K4">
+        <f>Sep!D4</f>
+        <v>187.7</v>
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>859</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -2252,13 +4365,45 @@
       <c r="B5" t="s">
         <v>8</v>
       </c>
+      <c r="C5">
+        <f>Jun!C5</f>
+        <v>56.7</v>
+      </c>
+      <c r="D5">
+        <f>Jul!C5</f>
+        <v>272.8</v>
+      </c>
+      <c r="E5">
+        <f>Aug!C5</f>
+        <v>117.5</v>
+      </c>
+      <c r="F5">
+        <f>Sep!C5</f>
+        <v>376.3</v>
+      </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>823.3</v>
+      </c>
+      <c r="H5">
+        <f>Jun!D5</f>
+        <v>139.5</v>
+      </c>
+      <c r="I5">
+        <f>Jul!D5</f>
+        <v>284.7</v>
+      </c>
+      <c r="J5">
+        <f>Aug!D5</f>
+        <v>247.7</v>
+      </c>
+      <c r="K5">
+        <f>Sep!D5</f>
+        <v>198.7</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>870.59999999999991</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -2268,13 +4413,45 @@
       <c r="B6" t="s">
         <v>9</v>
       </c>
+      <c r="C6">
+        <f>Jun!C6</f>
+        <v>19.2</v>
+      </c>
+      <c r="D6">
+        <f>Jul!C6</f>
+        <v>196.7</v>
+      </c>
+      <c r="E6">
+        <f>Aug!C6</f>
+        <v>106.1</v>
+      </c>
+      <c r="F6">
+        <f>Sep!C6</f>
+        <v>447</v>
+      </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>769</v>
+      </c>
+      <c r="H6">
+        <f>Jun!D6</f>
+        <v>165.6</v>
+      </c>
+      <c r="I6">
+        <f>Jul!D6</f>
+        <v>329.1</v>
+      </c>
+      <c r="J6">
+        <f>Aug!D6</f>
+        <v>273.8</v>
+      </c>
+      <c r="K6">
+        <f>Sep!D6</f>
+        <v>241</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1009.5</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -2284,13 +4461,45 @@
       <c r="B7" t="s">
         <v>10</v>
       </c>
+      <c r="C7">
+        <f>Jun!C7</f>
+        <v>83.9</v>
+      </c>
+      <c r="D7">
+        <f>Jul!C7</f>
+        <v>364.9</v>
+      </c>
+      <c r="E7">
+        <f>Aug!C7</f>
+        <v>225.9</v>
+      </c>
+      <c r="F7">
+        <f>Sep!C7</f>
+        <v>390.5</v>
+      </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1065.1999999999998</v>
+      </c>
+      <c r="H7">
+        <f>Jun!D7</f>
+        <v>111.7</v>
+      </c>
+      <c r="I7">
+        <f>Jul!D7</f>
+        <v>286</v>
+      </c>
+      <c r="J7">
+        <f>Aug!D7</f>
+        <v>271.2</v>
+      </c>
+      <c r="K7">
+        <f>Sep!D7</f>
+        <v>221.3</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>890.2</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -2300,13 +4509,45 @@
       <c r="B8" t="s">
         <v>11</v>
       </c>
+      <c r="C8">
+        <f>Jun!C8</f>
+        <v>71.099999999999994</v>
+      </c>
+      <c r="D8">
+        <f>Jul!C8</f>
+        <v>397.6</v>
+      </c>
+      <c r="E8">
+        <f>Aug!C8</f>
+        <v>102.4</v>
+      </c>
+      <c r="F8">
+        <f>Sep!C8</f>
+        <v>502.2</v>
+      </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1073.3</v>
+      </c>
+      <c r="H8">
+        <f>Jun!D8</f>
+        <v>179.5</v>
+      </c>
+      <c r="I8">
+        <f>Jul!D8</f>
+        <v>310.7</v>
+      </c>
+      <c r="J8">
+        <f>Aug!D8</f>
+        <v>260.3</v>
+      </c>
+      <c r="K8">
+        <f>Sep!D8</f>
+        <v>219.7</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>970.2</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -2316,13 +4557,45 @@
       <c r="B9" t="s">
         <v>12</v>
       </c>
+      <c r="C9">
+        <f>Jun!C9</f>
+        <v>32.6</v>
+      </c>
+      <c r="D9">
+        <f>Jul!C9</f>
+        <v>358.2</v>
+      </c>
+      <c r="E9">
+        <f>Aug!C9</f>
+        <v>84.7</v>
+      </c>
+      <c r="F9">
+        <f>Sep!C9</f>
+        <v>388.2</v>
+      </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>863.7</v>
+      </c>
+      <c r="H9">
+        <f>Jun!D9</f>
+        <v>116.4</v>
+      </c>
+      <c r="I9">
+        <f>Jul!D9</f>
+        <v>306.8</v>
+      </c>
+      <c r="J9">
+        <f>Aug!D9</f>
+        <v>258.89999999999998</v>
+      </c>
+      <c r="K9">
+        <f>Sep!D9</f>
+        <v>207.2</v>
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>889.3</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -2332,13 +4605,45 @@
       <c r="B10" t="s">
         <v>13</v>
       </c>
+      <c r="C10">
+        <f>Jun!C10</f>
+        <v>68.599999999999994</v>
+      </c>
+      <c r="D10">
+        <f>Jul!C10</f>
+        <v>465.7</v>
+      </c>
+      <c r="E10">
+        <f>Aug!C10</f>
+        <v>155.30000000000001</v>
+      </c>
+      <c r="F10">
+        <f>Sep!C10</f>
+        <v>394.6</v>
+      </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1084.1999999999998</v>
+      </c>
+      <c r="H10">
+        <f>Jun!D10</f>
+        <v>110.6</v>
+      </c>
+      <c r="I10">
+        <f>Jul!D10</f>
+        <v>270.60000000000002</v>
+      </c>
+      <c r="J10">
+        <f>Aug!D10</f>
+        <v>232</v>
+      </c>
+      <c r="K10">
+        <f>Sep!D10</f>
+        <v>172.2</v>
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>785.40000000000009</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -2348,13 +4653,45 @@
       <c r="B11" t="s">
         <v>14</v>
       </c>
+      <c r="C11">
+        <f>Jun!C11</f>
+        <v>96</v>
+      </c>
+      <c r="D11">
+        <f>Jul!C11</f>
+        <v>416.4</v>
+      </c>
+      <c r="E11">
+        <f>Aug!C11</f>
+        <v>126.9</v>
+      </c>
+      <c r="F11">
+        <f>Sep!C11</f>
+        <v>337.5</v>
+      </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>976.8</v>
+      </c>
+      <c r="H11">
+        <f>Jun!D11</f>
+        <v>145.1</v>
+      </c>
+      <c r="I11">
+        <f>Jul!D11</f>
+        <v>313.2</v>
+      </c>
+      <c r="J11">
+        <f>Aug!D11</f>
+        <v>254.7</v>
+      </c>
+      <c r="K11">
+        <f>Sep!D11</f>
+        <v>186.6</v>
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>899.6</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -2364,13 +4701,45 @@
       <c r="B12" t="s">
         <v>15</v>
       </c>
+      <c r="C12">
+        <f>Jun!C12</f>
+        <v>95.3</v>
+      </c>
+      <c r="D12">
+        <f>Jul!C12</f>
+        <v>665.4</v>
+      </c>
+      <c r="E12">
+        <f>Aug!C12</f>
+        <v>54.1</v>
+      </c>
+      <c r="F12">
+        <f>Sep!C12</f>
+        <v>340.6</v>
+      </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1155.4000000000001</v>
+      </c>
+      <c r="H12">
+        <f>Jun!D12</f>
+        <v>177.8</v>
+      </c>
+      <c r="I12">
+        <f>Jul!D12</f>
+        <v>364.3</v>
+      </c>
+      <c r="J12">
+        <f>Aug!D12</f>
+        <v>302</v>
+      </c>
+      <c r="K12">
+        <f>Sep!D12</f>
+        <v>211.1</v>
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1055.2</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -2380,13 +4749,45 @@
       <c r="B13" t="s">
         <v>16</v>
       </c>
+      <c r="C13">
+        <f>Jun!C13</f>
+        <v>62.7</v>
+      </c>
+      <c r="D13">
+        <f>Jul!C13</f>
+        <v>201.7</v>
+      </c>
+      <c r="E13">
+        <f>Aug!C13</f>
+        <v>224.2</v>
+      </c>
+      <c r="F13">
+        <f>Sep!C13</f>
+        <v>360.4</v>
+      </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>849</v>
+      </c>
+      <c r="H13">
+        <f>Jun!D13</f>
+        <v>135.4</v>
+      </c>
+      <c r="I13">
+        <f>Jul!D13</f>
+        <v>276.60000000000002</v>
+      </c>
+      <c r="J13">
+        <f>Aug!D13</f>
+        <v>241.6</v>
+      </c>
+      <c r="K13">
+        <f>Sep!D13</f>
+        <v>174.7</v>
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>828.3</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -2396,13 +4797,45 @@
       <c r="B14" t="s">
         <v>17</v>
       </c>
+      <c r="C14">
+        <f>Jun!C14</f>
+        <v>145.80000000000001</v>
+      </c>
+      <c r="D14">
+        <f>Jul!C14</f>
+        <v>611.1</v>
+      </c>
+      <c r="E14">
+        <f>Aug!C14</f>
+        <v>126.7</v>
+      </c>
+      <c r="F14">
+        <f>Sep!C14</f>
+        <v>483.9</v>
+      </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1367.5</v>
+      </c>
+      <c r="H14">
+        <f>Jun!D14</f>
+        <v>142.80000000000001</v>
+      </c>
+      <c r="I14">
+        <f>Jul!D14</f>
+        <v>336.3</v>
+      </c>
+      <c r="J14">
+        <f>Aug!D14</f>
+        <v>272.7</v>
+      </c>
+      <c r="K14">
+        <f>Sep!D14</f>
+        <v>216.8</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>968.59999999999991</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -2412,13 +4845,45 @@
       <c r="B15" t="s">
         <v>18</v>
       </c>
+      <c r="C15">
+        <f>Jun!C15</f>
+        <v>45.6</v>
+      </c>
+      <c r="D15">
+        <f>Jul!C15</f>
+        <v>206.1</v>
+      </c>
+      <c r="E15">
+        <f>Aug!C15</f>
+        <v>191.5</v>
+      </c>
+      <c r="F15">
+        <f>Sep!C15</f>
+        <v>392.1</v>
+      </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>835.3</v>
+      </c>
+      <c r="H15">
+        <f>Jun!D15</f>
+        <v>125.2</v>
+      </c>
+      <c r="I15">
+        <f>Jul!D15</f>
+        <v>284.39999999999998</v>
+      </c>
+      <c r="J15">
+        <f>Aug!D15</f>
+        <v>238.2</v>
+      </c>
+      <c r="K15">
+        <f>Sep!D15</f>
+        <v>185.1</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>832.9</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -2428,13 +4893,45 @@
       <c r="B16" t="s">
         <v>19</v>
       </c>
+      <c r="C16">
+        <f>Jun!C16</f>
+        <v>48.8</v>
+      </c>
+      <c r="D16">
+        <f>Jul!C16</f>
+        <v>324.2</v>
+      </c>
+      <c r="E16">
+        <f>Aug!C16</f>
+        <v>129.9</v>
+      </c>
+      <c r="F16">
+        <f>Sep!C16</f>
+        <v>309.7</v>
+      </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>812.59999999999991</v>
+      </c>
+      <c r="H16">
+        <f>Jun!D16</f>
+        <v>147.4</v>
+      </c>
+      <c r="I16">
+        <f>Jul!D16</f>
+        <v>319.39999999999998</v>
+      </c>
+      <c r="J16">
+        <f>Aug!D16</f>
+        <v>250.9</v>
+      </c>
+      <c r="K16">
+        <f>Sep!D16</f>
+        <v>218.7</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>936.39999999999986</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -2444,13 +4941,45 @@
       <c r="B17" t="s">
         <v>20</v>
       </c>
+      <c r="C17">
+        <f>Jun!C17</f>
+        <v>114.8</v>
+      </c>
+      <c r="D17">
+        <f>Jul!C17</f>
+        <v>377.6</v>
+      </c>
+      <c r="E17">
+        <f>Aug!C17</f>
+        <v>121.5</v>
+      </c>
+      <c r="F17">
+        <f>Sep!C17</f>
+        <v>401.9</v>
+      </c>
       <c r="G17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1015.8000000000001</v>
+      </c>
+      <c r="H17">
+        <f>Jun!D17</f>
+        <v>211.9</v>
+      </c>
+      <c r="I17">
+        <f>Jul!D17</f>
+        <v>349.2</v>
+      </c>
+      <c r="J17">
+        <f>Aug!D17</f>
+        <v>255.8</v>
+      </c>
+      <c r="K17">
+        <f>Sep!D17</f>
+        <v>262</v>
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1078.9000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -2460,13 +4989,45 @@
       <c r="B18" t="s">
         <v>21</v>
       </c>
+      <c r="C18">
+        <f>Jun!C18</f>
+        <v>57.8</v>
+      </c>
+      <c r="D18">
+        <f>Jul!C18</f>
+        <v>395.6</v>
+      </c>
+      <c r="E18">
+        <f>Aug!C18</f>
+        <v>98.2</v>
+      </c>
+      <c r="F18">
+        <f>Sep!C18</f>
+        <v>423.9</v>
+      </c>
       <c r="G18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>975.5</v>
+      </c>
+      <c r="H18">
+        <f>Jun!D18</f>
+        <v>184.5</v>
+      </c>
+      <c r="I18">
+        <f>Jul!D18</f>
+        <v>309</v>
+      </c>
+      <c r="J18">
+        <f>Aug!D18</f>
+        <v>252.1</v>
+      </c>
+      <c r="K18">
+        <f>Sep!D18</f>
+        <v>225.7</v>
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>971.3</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -2476,13 +5037,45 @@
       <c r="B19" t="s">
         <v>22</v>
       </c>
+      <c r="C19">
+        <f>Jun!C19</f>
+        <v>250.7</v>
+      </c>
+      <c r="D19">
+        <f>Jul!C19</f>
+        <v>915.1</v>
+      </c>
+      <c r="E19">
+        <f>Aug!C19</f>
+        <v>187.1</v>
+      </c>
+      <c r="F19">
+        <f>Sep!C19</f>
+        <v>385.3</v>
+      </c>
       <c r="G19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1738.1999999999998</v>
+      </c>
+      <c r="H19">
+        <f>Jun!D19</f>
+        <v>342.6</v>
+      </c>
+      <c r="I19">
+        <f>Jul!D19</f>
+        <v>597.4</v>
+      </c>
+      <c r="J19">
+        <f>Aug!D19</f>
+        <v>451.7</v>
+      </c>
+      <c r="K19">
+        <f>Sep!D19</f>
+        <v>354.5</v>
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1746.2</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -2492,13 +5085,45 @@
       <c r="B20" t="s">
         <v>23</v>
       </c>
+      <c r="C20">
+        <f>Jun!C20</f>
+        <v>28.9</v>
+      </c>
+      <c r="D20">
+        <f>Jul!C20</f>
+        <v>297.89999999999998</v>
+      </c>
+      <c r="E20">
+        <f>Aug!C20</f>
+        <v>101.8</v>
+      </c>
+      <c r="F20">
+        <f>Sep!C20</f>
+        <v>282.5</v>
+      </c>
       <c r="G20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>711.09999999999991</v>
+      </c>
+      <c r="H20">
+        <f>Jun!D20</f>
+        <v>121.7</v>
+      </c>
+      <c r="I20">
+        <f>Jul!D20</f>
+        <v>305.3</v>
+      </c>
+      <c r="J20">
+        <f>Aug!D20</f>
+        <v>222.7</v>
+      </c>
+      <c r="K20">
+        <f>Sep!D20</f>
+        <v>200.6</v>
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>850.30000000000007</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -2508,13 +5133,45 @@
       <c r="B21" t="s">
         <v>24</v>
       </c>
+      <c r="C21">
+        <f>Jun!C21</f>
+        <v>168.6</v>
+      </c>
+      <c r="D21">
+        <f>Jul!C21</f>
+        <v>533.6</v>
+      </c>
+      <c r="E21">
+        <f>Aug!C21</f>
+        <v>95.5</v>
+      </c>
+      <c r="F21">
+        <f>Sep!C21</f>
+        <v>482.5</v>
+      </c>
       <c r="G21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1280.2</v>
+      </c>
+      <c r="H21">
+        <f>Jun!D21</f>
+        <v>197.5</v>
+      </c>
+      <c r="I21">
+        <f>Jul!D21</f>
+        <v>332.8</v>
+      </c>
+      <c r="J21">
+        <f>Aug!D21</f>
+        <v>265.89999999999998</v>
+      </c>
+      <c r="K21">
+        <f>Sep!D21</f>
+        <v>250.1</v>
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1046.3</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -2524,13 +5181,45 @@
       <c r="B22" t="s">
         <v>25</v>
       </c>
+      <c r="C22">
+        <f>Jun!C22</f>
+        <v>76.8</v>
+      </c>
+      <c r="D22">
+        <f>Jul!C22</f>
+        <v>468.2</v>
+      </c>
+      <c r="E22">
+        <f>Aug!C22</f>
+        <v>102</v>
+      </c>
+      <c r="F22">
+        <f>Sep!C22</f>
+        <v>361.2</v>
+      </c>
       <c r="G22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1008.2</v>
+      </c>
+      <c r="H22">
+        <f>Jun!D22</f>
+        <v>169.2</v>
+      </c>
+      <c r="I22">
+        <f>Jul!D22</f>
+        <v>353.5</v>
+      </c>
+      <c r="J22">
+        <f>Aug!D22</f>
+        <v>268.5</v>
+      </c>
+      <c r="K22">
+        <f>Sep!D22</f>
+        <v>180.9</v>
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>972.1</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -2540,13 +5229,45 @@
       <c r="B23" t="s">
         <v>26</v>
       </c>
+      <c r="C23">
+        <f>Jun!C23</f>
+        <v>24.8</v>
+      </c>
+      <c r="D23">
+        <f>Jul!C23</f>
+        <v>401</v>
+      </c>
+      <c r="E23">
+        <f>Aug!C23</f>
+        <v>109.8</v>
+      </c>
+      <c r="F23">
+        <f>Sep!C23</f>
+        <v>312.60000000000002</v>
+      </c>
       <c r="G23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>848.2</v>
+      </c>
+      <c r="H23">
+        <f>Jun!D23</f>
+        <v>164</v>
+      </c>
+      <c r="I23">
+        <f>Jul!D23</f>
+        <v>353.9</v>
+      </c>
+      <c r="J23">
+        <f>Aug!D23</f>
+        <v>276.10000000000002</v>
+      </c>
+      <c r="K23">
+        <f>Sep!D23</f>
+        <v>225.9</v>
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1019.9</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -2556,13 +5277,45 @@
       <c r="B24" t="s">
         <v>27</v>
       </c>
+      <c r="C24">
+        <f>Jun!C24</f>
+        <v>47.1</v>
+      </c>
+      <c r="D24">
+        <f>Jul!C24</f>
+        <v>549.4</v>
+      </c>
+      <c r="E24">
+        <f>Aug!C24</f>
+        <v>73.400000000000006</v>
+      </c>
+      <c r="F24">
+        <f>Sep!C24</f>
+        <v>406</v>
+      </c>
       <c r="G24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1075.9000000000001</v>
+      </c>
+      <c r="H24">
+        <f>Jun!D24</f>
+        <v>157</v>
+      </c>
+      <c r="I24">
+        <f>Jul!D24</f>
+        <v>332.2</v>
+      </c>
+      <c r="J24">
+        <f>Aug!D24</f>
+        <v>261.89999999999998</v>
+      </c>
+      <c r="K24">
+        <f>Sep!D24</f>
+        <v>216.7</v>
       </c>
       <c r="L24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>967.8</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -2572,13 +5325,45 @@
       <c r="B25" t="s">
         <v>28</v>
       </c>
+      <c r="C25">
+        <f>Jun!C25</f>
+        <v>50.6</v>
+      </c>
+      <c r="D25">
+        <f>Jul!C25</f>
+        <v>255.8</v>
+      </c>
+      <c r="E25">
+        <f>Aug!C25</f>
+        <v>134.69999999999999</v>
+      </c>
+      <c r="F25">
+        <f>Sep!C25</f>
+        <v>514</v>
+      </c>
       <c r="G25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>955.1</v>
+      </c>
+      <c r="H25">
+        <f>Jun!D25</f>
+        <v>119.2</v>
+      </c>
+      <c r="I25">
+        <f>Jul!D25</f>
+        <v>304.3</v>
+      </c>
+      <c r="J25">
+        <f>Aug!D25</f>
+        <v>237.7</v>
+      </c>
+      <c r="K25">
+        <f>Sep!D25</f>
+        <v>191.6</v>
       </c>
       <c r="L25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>852.80000000000007</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -2588,13 +5373,45 @@
       <c r="B26" t="s">
         <v>29</v>
       </c>
+      <c r="C26">
+        <f>Jun!C26</f>
+        <v>40.700000000000003</v>
+      </c>
+      <c r="D26">
+        <f>Jul!C26</f>
+        <v>301.89999999999998</v>
+      </c>
+      <c r="E26">
+        <f>Aug!C26</f>
+        <v>165.8</v>
+      </c>
+      <c r="F26">
+        <f>Sep!C26</f>
+        <v>408.4</v>
+      </c>
       <c r="G26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>916.8</v>
+      </c>
+      <c r="H26">
+        <f>Jun!D26</f>
+        <v>124.3</v>
+      </c>
+      <c r="I26">
+        <f>Jul!D26</f>
+        <v>281.39999999999998</v>
+      </c>
+      <c r="J26">
+        <f>Aug!D26</f>
+        <v>242.4</v>
+      </c>
+      <c r="K26">
+        <f>Sep!D26</f>
+        <v>178.4</v>
       </c>
       <c r="L26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>826.5</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -2604,13 +5421,45 @@
       <c r="B27" t="s">
         <v>30</v>
       </c>
+      <c r="C27">
+        <f>Jun!C27</f>
+        <v>42.5</v>
+      </c>
+      <c r="D27">
+        <f>Jul!C27</f>
+        <v>278.7</v>
+      </c>
+      <c r="E27">
+        <f>Aug!C27</f>
+        <v>107.9</v>
+      </c>
+      <c r="F27">
+        <f>Sep!C27</f>
+        <v>431.2</v>
+      </c>
       <c r="G27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>860.3</v>
+      </c>
+      <c r="H27">
+        <f>Jun!D27</f>
+        <v>130.19999999999999</v>
+      </c>
+      <c r="I27">
+        <f>Jul!D27</f>
+        <v>315.60000000000002</v>
+      </c>
+      <c r="J27">
+        <f>Aug!D27</f>
+        <v>237.8</v>
+      </c>
+      <c r="K27">
+        <f>Sep!D27</f>
+        <v>203.3</v>
       </c>
       <c r="L27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>886.90000000000009</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -2620,13 +5469,45 @@
       <c r="B28" t="s">
         <v>31</v>
       </c>
+      <c r="C28">
+        <f>Jun!C28</f>
+        <v>251.5</v>
+      </c>
+      <c r="D28">
+        <f>Jul!C28</f>
+        <v>352.2</v>
+      </c>
+      <c r="E28">
+        <f>Aug!C28</f>
+        <v>193.6</v>
+      </c>
+      <c r="F28">
+        <f>Sep!C28</f>
+        <v>528.29999999999995</v>
+      </c>
       <c r="G28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1325.6</v>
+      </c>
+      <c r="H28">
+        <f>Jun!D28</f>
+        <v>279.7</v>
+      </c>
+      <c r="I28">
+        <f>Jul!D28</f>
+        <v>476.3</v>
+      </c>
+      <c r="J28">
+        <f>Aug!D28</f>
+        <v>346.9</v>
+      </c>
+      <c r="K28">
+        <f>Sep!D28</f>
+        <v>308.89999999999998</v>
       </c>
       <c r="L28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1411.8000000000002</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -2636,13 +5517,45 @@
       <c r="B29" t="s">
         <v>32</v>
       </c>
+      <c r="C29">
+        <f>Jun!C29</f>
+        <v>18.2</v>
+      </c>
+      <c r="D29">
+        <f>Jul!C29</f>
+        <v>213.9</v>
+      </c>
+      <c r="E29">
+        <f>Aug!C29</f>
+        <v>189.6</v>
+      </c>
+      <c r="F29">
+        <f>Sep!C29</f>
+        <v>360.3</v>
+      </c>
       <c r="G29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>782</v>
+      </c>
+      <c r="H29">
+        <f>Jun!D29</f>
+        <v>115.4</v>
+      </c>
+      <c r="I29">
+        <f>Jul!D29</f>
+        <v>288.8</v>
+      </c>
+      <c r="J29">
+        <f>Aug!D29</f>
+        <v>248</v>
+      </c>
+      <c r="K29">
+        <f>Sep!D29</f>
+        <v>190.1</v>
       </c>
       <c r="L29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>842.30000000000007</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -2652,13 +5565,45 @@
       <c r="B30" t="s">
         <v>33</v>
       </c>
+      <c r="C30">
+        <f>Jun!C30</f>
+        <v>93</v>
+      </c>
+      <c r="D30">
+        <f>Jul!C30</f>
+        <v>403.3</v>
+      </c>
+      <c r="E30">
+        <f>Aug!C30</f>
+        <v>155.19999999999999</v>
+      </c>
+      <c r="F30">
+        <f>Sep!C30</f>
+        <v>376.7</v>
+      </c>
       <c r="G30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1028.2</v>
+      </c>
+      <c r="H30">
+        <f>Jun!D30</f>
+        <v>195.6</v>
+      </c>
+      <c r="I30">
+        <f>Jul!D30</f>
+        <v>375.3</v>
+      </c>
+      <c r="J30">
+        <f>Aug!D30</f>
+        <v>276</v>
+      </c>
+      <c r="K30">
+        <f>Sep!D30</f>
+        <v>236.4</v>
       </c>
       <c r="L30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1083.3</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -2668,13 +5613,45 @@
       <c r="B31" t="s">
         <v>34</v>
       </c>
+      <c r="C31">
+        <f>Jun!C31</f>
+        <v>63.8</v>
+      </c>
+      <c r="D31">
+        <f>Jul!C31</f>
+        <v>406.4</v>
+      </c>
+      <c r="E31">
+        <f>Aug!C31</f>
+        <v>228</v>
+      </c>
+      <c r="F31">
+        <f>Sep!C31</f>
+        <v>606.4</v>
+      </c>
       <c r="G31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1304.5999999999999</v>
+      </c>
+      <c r="H31">
+        <f>Jun!D31</f>
+        <v>158.4</v>
+      </c>
+      <c r="I31">
+        <f>Jul!D31</f>
+        <v>309.5</v>
+      </c>
+      <c r="J31">
+        <f>Aug!D31</f>
+        <v>254.8</v>
+      </c>
+      <c r="K31">
+        <f>Sep!D31</f>
+        <v>223</v>
       </c>
       <c r="L31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>945.7</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -2684,13 +5661,45 @@
       <c r="B32" t="s">
         <v>35</v>
       </c>
+      <c r="C32">
+        <f>Jun!C32</f>
+        <v>65.7</v>
+      </c>
+      <c r="D32">
+        <f>Jul!C32</f>
+        <v>480.8</v>
+      </c>
+      <c r="E32">
+        <f>Aug!C32</f>
+        <v>121.6</v>
+      </c>
+      <c r="F32">
+        <f>Sep!C32</f>
+        <v>315.2</v>
+      </c>
       <c r="G32">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>983.3</v>
+      </c>
+      <c r="H32">
+        <f>Jun!D32</f>
+        <v>129.69999999999999</v>
+      </c>
+      <c r="I32">
+        <f>Jul!D32</f>
+        <v>315.89999999999998</v>
+      </c>
+      <c r="J32">
+        <f>Aug!D32</f>
+        <v>258</v>
+      </c>
+      <c r="K32">
+        <f>Sep!D32</f>
+        <v>195.8</v>
       </c>
       <c r="L32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>899.39999999999986</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -2700,13 +5709,45 @@
       <c r="B33" t="s">
         <v>36</v>
       </c>
+      <c r="C33">
+        <f>Jun!C33</f>
+        <v>9.4</v>
+      </c>
+      <c r="D33">
+        <f>Jul!C33</f>
+        <v>254.8</v>
+      </c>
+      <c r="E33">
+        <f>Aug!C33</f>
+        <v>102.4</v>
+      </c>
+      <c r="F33">
+        <f>Sep!C33</f>
+        <v>251.2</v>
+      </c>
       <c r="G33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>617.79999999999995</v>
+      </c>
+      <c r="H33">
+        <f>Jun!D33</f>
+        <v>130.1</v>
+      </c>
+      <c r="I33">
+        <f>Jul!D33</f>
+        <v>296.60000000000002</v>
+      </c>
+      <c r="J33">
+        <f>Aug!D33</f>
+        <v>209.6</v>
+      </c>
+      <c r="K33">
+        <f>Sep!D33</f>
+        <v>181.7</v>
       </c>
       <c r="L33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>818</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -2716,13 +5757,45 @@
       <c r="B34" t="s">
         <v>37</v>
       </c>
+      <c r="C34">
+        <f>Jun!C34</f>
+        <v>43.4</v>
+      </c>
+      <c r="D34">
+        <f>Jul!C34</f>
+        <v>595.79999999999995</v>
+      </c>
+      <c r="E34">
+        <f>Aug!C34</f>
+        <v>93.8</v>
+      </c>
+      <c r="F34">
+        <f>Sep!C34</f>
+        <v>280</v>
+      </c>
       <c r="G34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1012.9999999999999</v>
+      </c>
+      <c r="H34">
+        <f>Jun!D34</f>
+        <v>179.1</v>
+      </c>
+      <c r="I34">
+        <f>Jul!D34</f>
+        <v>356.7</v>
+      </c>
+      <c r="J34">
+        <f>Aug!D34</f>
+        <v>266.89999999999998</v>
+      </c>
+      <c r="K34">
+        <f>Sep!D34</f>
+        <v>206</v>
       </c>
       <c r="L34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1008.6999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -2732,13 +5805,45 @@
       <c r="B35" t="s">
         <v>38</v>
       </c>
+      <c r="C35">
+        <f>Jun!C35</f>
+        <v>96.2</v>
+      </c>
+      <c r="D35">
+        <f>Jul!C35</f>
+        <v>621.4</v>
+      </c>
+      <c r="E35">
+        <f>Aug!C35</f>
+        <v>56.5</v>
+      </c>
+      <c r="F35">
+        <f>Sep!C35</f>
+        <v>294.8</v>
+      </c>
       <c r="G35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1068.9000000000001</v>
+      </c>
+      <c r="H35">
+        <f>Jun!D35</f>
+        <v>188.9</v>
+      </c>
+      <c r="I35">
+        <f>Jul!D35</f>
+        <v>375.5</v>
+      </c>
+      <c r="J35">
+        <f>Aug!D35</f>
+        <v>307.3</v>
+      </c>
+      <c r="K35">
+        <f>Sep!D35</f>
+        <v>188.6</v>
       </c>
       <c r="L35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1060.3</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -2748,13 +5853,45 @@
       <c r="B36" t="s">
         <v>39</v>
       </c>
+      <c r="C36">
+        <f>Jun!C36</f>
+        <v>63.2</v>
+      </c>
+      <c r="D36">
+        <f>Jul!C36</f>
+        <v>714.2</v>
+      </c>
+      <c r="E36">
+        <f>Aug!C36</f>
+        <v>82.4</v>
+      </c>
+      <c r="F36">
+        <f>Sep!C36</f>
+        <v>413.5</v>
+      </c>
       <c r="G36">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1273.3000000000002</v>
+      </c>
+      <c r="H36">
+        <f>Jun!D36</f>
+        <v>130.80000000000001</v>
+      </c>
+      <c r="I36">
+        <f>Jul!D36</f>
+        <v>308.3</v>
+      </c>
+      <c r="J36">
+        <f>Aug!D36</f>
+        <v>249</v>
+      </c>
+      <c r="K36">
+        <f>Sep!D36</f>
+        <v>212.9</v>
       </c>
       <c r="L36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>901</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -2764,13 +5901,45 @@
       <c r="B37" t="s">
         <v>40</v>
       </c>
+      <c r="C37">
+        <f>Jun!C37</f>
+        <v>181.7</v>
+      </c>
+      <c r="D37">
+        <f>Jul!C37</f>
+        <v>501.7</v>
+      </c>
+      <c r="E37">
+        <f>Aug!C37</f>
+        <v>114.6</v>
+      </c>
+      <c r="F37">
+        <f>Sep!C37</f>
+        <v>491.2</v>
+      </c>
       <c r="G37">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1289.2</v>
+      </c>
+      <c r="H37">
+        <f>Jun!D37</f>
+        <v>203.4</v>
+      </c>
+      <c r="I37">
+        <f>Jul!D37</f>
+        <v>391.3</v>
+      </c>
+      <c r="J37">
+        <f>Aug!D37</f>
+        <v>262.5</v>
+      </c>
+      <c r="K37">
+        <f>Sep!D37</f>
+        <v>228.5</v>
       </c>
       <c r="L37">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1085.7</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -2780,13 +5949,45 @@
       <c r="B38" t="s">
         <v>41</v>
       </c>
+      <c r="C38">
+        <f>Jun!C38</f>
+        <v>44.3</v>
+      </c>
+      <c r="D38">
+        <f>Jul!C38</f>
+        <v>330.2</v>
+      </c>
+      <c r="E38">
+        <f>Aug!C38</f>
+        <v>132</v>
+      </c>
+      <c r="F38">
+        <f>Sep!C38</f>
+        <v>471.7</v>
+      </c>
       <c r="G38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>978.2</v>
+      </c>
+      <c r="H38">
+        <f>Jun!D38</f>
+        <v>126.1</v>
+      </c>
+      <c r="I38">
+        <f>Jul!D38</f>
+        <v>335.6</v>
+      </c>
+      <c r="J38">
+        <f>Aug!D38</f>
+        <v>244.3</v>
+      </c>
+      <c r="K38">
+        <f>Sep!D38</f>
+        <v>199.4</v>
       </c>
       <c r="L38">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>905.4</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -2796,13 +5997,45 @@
       <c r="B39" t="s">
         <v>42</v>
       </c>
+      <c r="C39">
+        <f>Jun!C39</f>
+        <v>377.3</v>
+      </c>
+      <c r="D39">
+        <f>Jul!C39</f>
+        <v>641.9</v>
+      </c>
+      <c r="E39">
+        <f>Aug!C39</f>
+        <v>154</v>
+      </c>
+      <c r="F39">
+        <f>Sep!C39</f>
+        <v>260.89999999999998</v>
+      </c>
       <c r="G39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1434.1</v>
+      </c>
+      <c r="H39">
+        <f>Jun!D39</f>
+        <v>200.8</v>
+      </c>
+      <c r="I39">
+        <f>Jul!D39</f>
+        <v>438.5</v>
+      </c>
+      <c r="J39">
+        <f>Aug!D39</f>
+        <v>355.8</v>
+      </c>
+      <c r="K39">
+        <f>Sep!D39</f>
+        <v>237.1</v>
       </c>
       <c r="L39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1232.1999999999998</v>
       </c>
     </row>
   </sheetData>
